--- a/doc/外部設計/02_DB定義書_B2.xlsx
+++ b/doc/外部設計/02_DB定義書_B2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\シェアハウスアプリ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B2\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898EB4DB-557C-4435-AFB1-B1B393016C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E5A68E-292D-4659-8286-CEDFF3FED8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="131">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -746,10 +746,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>expenseテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>expenseApproval_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -800,6 +796,14 @@
   </si>
   <si>
     <t>Schedule</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskDetailテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Expenseテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -902,7 +906,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -922,9 +926,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1237,7 +1238,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1376,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>44</v>
@@ -1390,11 +1391,11 @@
       <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>125</v>
+      <c r="C13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>30</v>
@@ -1405,11 +1406,11 @@
       <c r="B14" s="3">
         <v>7</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>30</v>
@@ -1469,7 +1470,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
@@ -2742,7 +2743,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3183,7 +3184,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3207,7 +3208,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -3710,7 +3711,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -4225,7 +4226,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -5285,7 +5286,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5502,7 +5503,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L15:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5805,8 +5806,8 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>123</v>
+      <c r="C4" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5817,8 +5818,8 @@
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>125</v>
+      <c r="C5" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6262,7 +6263,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6311,8 +6312,8 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>126</v>
+      <c r="C4" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -6323,8 +6324,8 @@
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>127</v>
+      <c r="C5" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6375,7 +6376,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -6410,7 +6411,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6769,7 +6770,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6952,10 +6953,10 @@
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>102</v>
       </c>
       <c r="D13" s="3"/>
@@ -6964,7 +6965,9 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="L13" t="str">
         <f>C12&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>status  ,</v>

--- a/doc/外部設計/02_DB定義書_B2.xlsx
+++ b/doc/外部設計/02_DB定義書_B2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B2\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E5A68E-292D-4659-8286-CEDFF3FED8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69521A1-C001-4F24-8EC9-293D33A6F2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="User" sheetId="4" r:id="rId3"/>
     <sheet name="Task" sheetId="6" r:id="rId4"/>
     <sheet name="TaskDetail" sheetId="5" r:id="rId5"/>
-    <sheet name="Expense" sheetId="7" r:id="rId6"/>
-    <sheet name="ExpenseDetail" sheetId="8" r:id="rId7"/>
+    <sheet name="Settlement" sheetId="7" r:id="rId6"/>
+    <sheet name="Expense" sheetId="8" r:id="rId7"/>
     <sheet name="ExpenseApproval" sheetId="21" r:id="rId8"/>
     <sheet name="Item" sheetId="10" r:id="rId9"/>
     <sheet name="Notification" sheetId="11" r:id="rId10"/>
@@ -446,19 +446,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>expenseDetail_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>expense_finish</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>task_finish</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ExpenseDetailテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -691,10 +679,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>expense_approval</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TIA</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -720,10 +704,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>expense_confirm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>精算時、立替え人以外に送られる確認</t>
     <rPh sb="0" eb="3">
       <t>セイサンジ</t>
@@ -770,10 +750,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ExpenseDetail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>支出精算確認</t>
     <rPh sb="0" eb="2">
       <t>シシュツ</t>
@@ -804,6 +780,30 @@
   </si>
   <si>
     <t>Expenseテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>settlement_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>settlement_finish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>settlement_approval</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Settlementテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confirm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Settlement</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1238,7 +1238,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1260,13 +1260,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1365,7 +1365,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
@@ -1377,10 +1377,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>30</v>
@@ -1392,10 +1392,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>30</v>
@@ -1407,10 +1407,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>30</v>
@@ -1470,7 +1470,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
@@ -1697,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1705,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1782,15 +1782,15 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1829,10 +1829,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1851,10 +1851,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1873,13 +1873,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2206,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2214,7 +2214,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2291,7 +2291,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2334,10 +2334,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2356,10 +2356,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2378,10 +2378,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2709,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2717,7 +2717,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2743,7 +2743,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2794,7 +2794,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2837,10 +2837,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2881,10 +2881,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -3208,13 +3208,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3222,7 +3222,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3302,14 +3302,14 @@
         <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3324,17 +3324,17 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3711,13 +3711,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3725,7 +3725,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3807,10 +3807,10 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3835,7 +3835,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3859,7 +3859,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3873,17 +3873,17 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I13" s="3"/>
       <c r="L13" t="str">
@@ -3902,7 +3902,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4226,13 +4226,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4240,7 +4240,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4322,10 +4322,10 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4343,7 +4343,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -4394,7 +4394,7 @@
         <v>59</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4415,10 +4415,10 @@
         <v>58</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4745,7 +4745,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4753,7 +4753,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4779,7 +4779,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4830,15 +4830,15 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4863,7 +4863,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4883,7 +4883,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4951,7 +4951,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5234,7 +5234,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5258,13 +5258,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5272,7 +5272,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5286,7 +5286,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5298,7 +5298,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Expense (</v>
+        <v>create table Settlement (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5349,22 +5349,22 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>expense_id  ,</v>
+        <v>settlement_id  ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5372,7 +5372,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>34</v>
@@ -5399,7 +5399,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -5408,11 +5408,11 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>expenseDetail_id  ,</v>
+        <v>expense_id  ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5420,13 +5420,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5436,7 +5436,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>expense_finish BOOLEAN ,</v>
+        <v>settlement_finish BOOLEAN ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5444,13 +5444,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5468,13 +5468,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5482,7 +5482,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L15" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -5757,7 +5757,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5785,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5793,7 +5793,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5807,7 +5807,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5819,7 +5819,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5859,26 +5859,26 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table ExpenseDetail (</v>
+        <v>create table Expense (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -5971,7 +5971,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L14" t="e">
         <f>#REF!&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -6263,7 +6263,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6291,7 +6291,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6299,7 +6299,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -6313,7 +6313,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -6325,7 +6325,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6376,15 +6376,15 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -6402,7 +6402,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -6411,7 +6411,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6447,10 +6447,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -6459,7 +6459,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -6770,7 +6770,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6798,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6806,7 +6806,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -6883,15 +6883,15 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -6906,17 +6906,17 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -6930,10 +6930,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -6942,7 +6942,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -6957,7 +6957,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -6966,7 +6966,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L13" t="str">
         <f>C12&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>

--- a/doc/外部設計/02_DB定義書_B2.xlsx
+++ b/doc/外部設計/02_DB定義書_B2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B2\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69521A1-C001-4F24-8EC9-293D33A6F2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5142770E-F905-4F6F-BEBA-98CC96FAF8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="834" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="TaskDetail" sheetId="5" r:id="rId5"/>
     <sheet name="Settlement" sheetId="7" r:id="rId6"/>
     <sheet name="Expense" sheetId="8" r:id="rId7"/>
-    <sheet name="ExpenseApproval" sheetId="21" r:id="rId8"/>
+    <sheet name="SettlementApproval" sheetId="21" r:id="rId8"/>
     <sheet name="Item" sheetId="10" r:id="rId9"/>
     <sheet name="Notification" sheetId="11" r:id="rId10"/>
     <sheet name="Board" sheetId="13" r:id="rId11"/>
@@ -726,10 +726,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>expenseApproval_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>支出詳細</t>
     <rPh sb="0" eb="2">
       <t>シシュツ</t>
@@ -763,10 +759,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ExpenseApproval</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tia</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -804,6 +796,14 @@
   </si>
   <si>
     <t>Settlement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>settlementApproval_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SettlementApproval</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1237,8 +1237,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1377,10 +1377,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>30</v>
@@ -1392,7 +1392,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>44</v>
@@ -1407,10 +1407,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>30</v>
@@ -1470,7 +1470,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
@@ -2743,7 +2743,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3208,7 +3208,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -3711,7 +3711,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -4226,7 +4226,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -5286,7 +5286,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5298,7 +5298,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5349,7 +5349,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -5408,7 +5408,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -5423,7 +5423,7 @@
         <v>103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>101</v>
@@ -5447,7 +5447,7 @@
         <v>109</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>101</v>
@@ -5756,8 +5756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0EE2DA-3B4C-4E7E-AC9F-AD97DD11754D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5807,7 +5807,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -6263,7 +6263,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6313,7 +6313,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -6325,7 +6325,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table ExpenseApproval (</v>
+        <v>create table SettlementApproval (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -6376,7 +6376,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -6391,7 +6391,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>expenseApproval_id  ,</v>
+        <v>settlementApproval_id  ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -6402,7 +6402,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -6411,7 +6411,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6450,7 +6450,7 @@
         <v>114</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -6966,7 +6966,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L13" t="str">
         <f>C12&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>

--- a/doc/外部設計/02_DB定義書_B2.xlsx
+++ b/doc/外部設計/02_DB定義書_B2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B2\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5142770E-F905-4F6F-BEBA-98CC96FAF8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECF66D7-786A-48D2-850C-49989BC19F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="834" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="132">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -422,10 +422,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Taskテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Userテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -683,13 +679,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>伊東</t>
-    <rPh sb="0" eb="2">
-      <t>イトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FORESE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -804,6 +793,18 @@
   </si>
   <si>
     <t>SettlementApproval</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HOUSE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TASK</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1237,8 +1238,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1260,21 +1261,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1320,7 +1319,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>30</v>
@@ -1335,7 +1334,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -1350,7 +1349,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>30</v>
@@ -1365,7 +1364,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
@@ -1377,10 +1376,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>30</v>
@@ -1392,7 +1391,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>44</v>
@@ -1407,10 +1406,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>30</v>
@@ -1470,7 +1469,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
@@ -1669,7 +1668,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1696,16 +1695,14 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1782,15 +1779,15 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1817,7 +1814,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -1829,10 +1826,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1851,10 +1848,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1873,13 +1870,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2178,7 +2175,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2205,16 +2202,14 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2291,7 +2286,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2322,7 +2317,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" t="e">
         <f>#REF!&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -2334,10 +2329,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2356,10 +2351,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2378,10 +2373,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2681,7 +2676,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2708,16 +2703,14 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2743,7 +2736,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2794,7 +2787,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2825,7 +2818,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2837,10 +2830,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2881,10 +2874,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -3184,7 +3177,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3208,21 +3201,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3302,14 +3293,14 @@
         <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3324,17 +3315,17 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3687,7 +3678,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3711,21 +3702,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3807,10 +3796,10 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3835,7 +3824,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3859,7 +3848,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3873,17 +3862,17 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I13" s="3"/>
       <c r="L13" t="str">
@@ -3902,7 +3891,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4202,7 +4191,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4226,21 +4215,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4319,20 +4306,22 @@
       <c r="C10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>task_id  ,</v>
+        <v>task_id INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4343,7 +4332,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -4352,7 +4341,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4376,7 +4365,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4394,7 +4383,7 @@
         <v>59</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4415,10 +4404,10 @@
         <v>58</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4717,7 +4706,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4744,16 +4733,14 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4779,7 +4766,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4830,15 +4817,15 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4863,7 +4850,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4883,7 +4870,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4951,7 +4938,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5234,7 +5221,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5258,21 +5245,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5286,7 +5271,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5298,7 +5283,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5349,15 +5334,15 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -5372,7 +5357,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>34</v>
@@ -5384,7 +5369,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5399,7 +5384,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -5408,7 +5393,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -5420,13 +5405,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5444,13 +5429,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5468,13 +5453,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5482,7 +5467,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L15" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -5756,8 +5741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0EE2DA-3B4C-4E7E-AC9F-AD97DD11754D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5784,16 +5769,14 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5807,7 +5790,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5870,15 +5853,15 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -5896,7 +5879,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -5918,7 +5901,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -5962,7 +5945,7 @@
         <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -5971,7 +5954,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L14" t="e">
         <f>#REF!&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -6290,16 +6273,14 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -6313,7 +6294,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -6325,7 +6306,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6376,15 +6357,15 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -6402,7 +6383,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -6411,7 +6392,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6435,7 +6416,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12" t="e">
         <f>C13&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -6447,10 +6428,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -6459,7 +6440,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -6770,7 +6751,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6797,16 +6778,14 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -6883,15 +6862,15 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -6906,17 +6885,17 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -6930,10 +6909,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -6942,7 +6921,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -6957,7 +6936,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -6966,7 +6945,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L13" t="str">
         <f>C12&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>

--- a/doc/外部設計/02_DB定義書_B2.xlsx
+++ b/doc/外部設計/02_DB定義書_B2.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B2\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECF66D7-786A-48D2-850C-49989BC19F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899D3862-3528-4925-94C2-6E361FB73098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="House" sheetId="2" r:id="rId2"/>
-    <sheet name="User" sheetId="4" r:id="rId3"/>
-    <sheet name="Task" sheetId="6" r:id="rId4"/>
-    <sheet name="TaskDetail" sheetId="5" r:id="rId5"/>
-    <sheet name="Settlement" sheetId="7" r:id="rId6"/>
-    <sheet name="Expense" sheetId="8" r:id="rId7"/>
-    <sheet name="SettlementApproval" sheetId="21" r:id="rId8"/>
-    <sheet name="Item" sheetId="10" r:id="rId9"/>
-    <sheet name="Notification" sheetId="11" r:id="rId10"/>
-    <sheet name="Board" sheetId="13" r:id="rId11"/>
-    <sheet name="Schedule" sheetId="15" r:id="rId12"/>
+    <sheet name="HOUSES" sheetId="2" r:id="rId2"/>
+    <sheet name="USERS" sheetId="4" r:id="rId3"/>
+    <sheet name="TASKS" sheetId="6" r:id="rId4"/>
+    <sheet name="TASK_DETAILS" sheetId="5" r:id="rId5"/>
+    <sheet name="SETTLEMENTS" sheetId="7" r:id="rId6"/>
+    <sheet name="EXPENSES" sheetId="8" r:id="rId7"/>
+    <sheet name="APPROVALS" sheetId="21" r:id="rId8"/>
+    <sheet name="ITEMS" sheetId="10" r:id="rId9"/>
+    <sheet name="NOTIFICATIONS" sheetId="11" r:id="rId10"/>
+    <sheet name="BOARDS" sheetId="13" r:id="rId11"/>
+    <sheet name="SCHEDULES" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="125">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -248,10 +248,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>house_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
@@ -263,10 +259,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user_name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -289,39 +281,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Houseテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>email</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>House</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>User</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Task</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Expense</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Item</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Notification</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Board</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -353,10 +313,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>task_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>task_name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -422,14 +378,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Userテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>expense_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>expense_type</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -457,20 +405,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>無くてもいい気がする</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテム名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -493,19 +427,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>在庫あり、少ない、無い</t>
-    <rPh sb="0" eb="2">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>通知内容</t>
     <rPh sb="0" eb="4">
       <t>ツウチナイヨウ</t>
@@ -530,10 +451,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>notification_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>message</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -543,10 +460,6 @@
   </si>
   <si>
     <t>read</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>post_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -575,10 +488,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>schedule_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>title</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -587,10 +496,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -600,10 +505,6 @@
   </si>
   <si>
     <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>taskDetail_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -629,14 +530,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>house_password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TaskDetail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日時</t>
     <rPh sb="0" eb="2">
       <t>ニチジ</t>
@@ -648,10 +541,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>なくてもいいかも</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>承認済みかどうか</t>
     <rPh sb="0" eb="2">
       <t>ショウニン</t>
@@ -752,22 +641,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Schedule</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TaskDetailテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Expenseテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>settlement_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>settlement_finish</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -776,35 +649,140 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Settlementテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>confirm</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Settlement</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>settlementApproval_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SettlementApproval</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HOUSE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>USER</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TASK</t>
+    <t>TASK_DETAILS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TASKS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USERS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HOUSES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCHEDULES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ITEMS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SETTLEMENTS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXPENSES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APPROVALS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOTIFICATIONS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOARDS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>houses_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HOUSESテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TASK_DETAILSlテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USERSテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task_details_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>expenses_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>settlements_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXPENSESテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SETTLEMENTSテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TASK_DETAILSテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニーク制約、ハッシュ値自動生成</t>
+    <rPh sb="4" eb="6">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>house_hash</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫あり(3)、少ない(2)、無い(1)</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1239,7 +1217,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1261,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -1273,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1319,7 +1297,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>30</v>
@@ -1334,7 +1312,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -1349,7 +1327,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>30</v>
@@ -1364,7 +1342,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
@@ -1376,10 +1354,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>30</v>
@@ -1391,10 +1369,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>30</v>
@@ -1406,10 +1384,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>30</v>
@@ -1424,7 +1402,7 @@
         <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>30</v>
@@ -1439,7 +1417,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>30</v>
@@ -1454,7 +1432,7 @@
         <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>30</v>
@@ -1469,7 +1447,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
@@ -1668,7 +1646,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1702,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1728,7 +1706,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1768,7 +1746,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Notification (</v>
+        <v>create table NOTIFICATIONS (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1776,25 +1754,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>notification_id  ,</v>
+        <v>ID INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1802,23 +1782,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id  ,</v>
+        <v>users_id INT ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1826,12 +1808,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1840,7 +1824,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>message  ,</v>
+        <v>message TEXT ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1848,12 +1832,14 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1862,7 +1848,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>notification_date  ,</v>
+        <v>notification_date DATETIME ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1870,13 +1856,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2175,7 +2161,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2209,7 +2195,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2235,7 +2221,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2275,7 +2261,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Board (</v>
+        <v>create table BOARDS (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2283,15 +2269,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2305,19 +2297,21 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="L11" t="e">
         <f>#REF!&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -2329,12 +2323,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2351,12 +2347,14 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2373,12 +2371,14 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -2676,7 +2676,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2710,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2736,7 +2736,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Schedule (</v>
+        <v>create table SCHEDULES (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2784,21 +2784,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>schedule_id  ,</v>
+        <v>ID INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2806,23 +2812,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id  ,</v>
+        <v>users_id INT ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2830,12 +2838,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2844,7 +2854,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>title  ,</v>
+        <v>title VARCHAR(255) ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2852,12 +2862,14 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2866,7 +2878,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>description  ,</v>
+        <v>description TEXT ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2874,12 +2886,14 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -2888,7 +2902,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">date  </v>
+        <v xml:space="preserve">date DATE </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3177,7 +3191,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3201,7 +3215,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -3213,7 +3227,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3239,7 +3253,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3279,7 +3293,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table House (</v>
+        <v>create table HOUSES (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3287,27 +3301,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>house_id INT ,</v>
+        <f>C10&amp;" "&amp;D12&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>ID VARCHAR(255) ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3315,22 +3329,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="L11" t="e">
-        <f>C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -3338,21 +3355,25 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="3"/>
+      <c r="B12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="e">
-        <f>#REF!&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -3360,18 +3381,24 @@
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+      <c r="L13" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3678,7 +3705,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3702,7 +3729,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -3714,7 +3741,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3740,7 +3767,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3780,7 +3807,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table User (</v>
+        <v>create table USERS (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3788,25 +3815,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id  ,</v>
+        <v>ID INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3814,23 +3843,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_name  ,</v>
+        <v>user_name VARCHAR(255) ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3838,23 +3869,25 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>email  ,</v>
+        <v>email VARCHAR(255) ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3862,22 +3895,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C14&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">house_id  </v>
+        <v xml:space="preserve">houses_id VARCHAR(255) </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3885,22 +3921,20 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="J14" s="3"/>
       <c r="L14" t="e">
         <f>C15&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -4191,7 +4225,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4215,7 +4249,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -4227,7 +4261,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4253,7 +4287,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4293,7 +4327,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Task (</v>
+        <v>create table TASKS (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4301,27 +4335,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>task_id INT ,</v>
+        <v>ID INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4329,23 +4363,24 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>taskDetail_id  ,</v>
+        <v>task_details_id INT ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4353,23 +4388,25 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_id  ,</v>
+        <v>users_id INT ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4377,13 +4414,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4401,19 +4438,21 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -4706,7 +4745,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4740,7 +4779,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4766,7 +4805,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4806,7 +4845,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table TaskDetail (</v>
+        <v>create table TASK_DETAILS (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4814,25 +4853,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>taskDetail_id  ,</v>
+        <v>ID INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4840,23 +4881,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>task_name  ,</v>
+        <v>task_name VARCHAR(255) ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4864,13 +4905,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4888,21 +4929,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>effort  ,</v>
+        <v>effort INT ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4910,21 +4955,25 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>frequency  ,</v>
+        <v>frequency INT ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -4932,13 +4981,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -4946,11 +4995,11 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">house_id INT </v>
+        <v xml:space="preserve">houses_id INT </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -5221,7 +5270,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5245,7 +5294,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -5257,7 +5306,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5271,7 +5320,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5283,7 +5332,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5323,7 +5372,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Settlement (</v>
+        <v>create table SETTLEMENTS (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5331,25 +5380,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>settlement_id  ,</v>
+        <v>ID INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5357,23 +5408,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id  ,</v>
+        <v>users_id INT ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5381,23 +5434,25 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>expense_id  ,</v>
+        <v>expenses_id INT ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5405,19 +5460,21 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -5429,19 +5486,21 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="L14" t="e">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5453,22 +5512,20 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="J15" s="3"/>
       <c r="L15" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -5742,7 +5799,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5776,7 +5833,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5790,7 +5847,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5802,7 +5859,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5842,7 +5899,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Expense (</v>
+        <v>create table EXPENSES (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5850,25 +5907,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C11&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>expense_type  ,</v>
+        <v>expense_type INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5876,12 +5935,14 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -5890,7 +5951,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>amount  ,</v>
+        <v>amount VARCHAR(255) ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5898,12 +5959,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -5912,7 +5975,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C13&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>description  ,</v>
+        <v>description INT ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5920,12 +5983,14 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -5942,20 +6007,20 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="J14" s="3"/>
       <c r="L14" t="e">
         <f>#REF!&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -6246,7 +6311,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6280,7 +6345,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -6294,7 +6359,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -6306,7 +6371,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6346,7 +6411,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table SettlementApproval (</v>
+        <v>create table APPROVALS (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -6354,25 +6419,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>settlementApproval_id  ,</v>
+        <v>ID INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -6380,23 +6447,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_id  ,</v>
+        <v>users_id INT ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -6404,19 +6473,21 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="L12" t="e">
         <f>C13&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -6428,19 +6499,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="J13" s="3" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -6751,7 +6826,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6785,7 +6860,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -6811,7 +6886,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6851,7 +6926,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Item (</v>
+        <v>create table ITEMS (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -6859,25 +6934,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>item_id  ,</v>
+        <v>ID INT ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -6885,18 +6962,18 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="e">
@@ -6909,19 +6986,23 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3">
+        <v>3</v>
+      </c>
       <c r="J12" s="3" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -6933,12 +7014,14 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -6949,7 +7032,7 @@
       </c>
       <c r="L13" t="str">
         <f>C12&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>status  ,</v>
+        <v>status INT ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6957,19 +7040,21 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="L14" t="e">
         <f>C14&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
